--- a/chris/death_of_gb/DeathOfGB-Fig1.xlsx
+++ b/chris/death_of_gb/DeathOfGB-Fig1.xlsx
@@ -146,7 +146,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -164,10 +164,6 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -243,7 +239,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1145,11 +1141,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="32987206"/>
-        <c:axId val="53282761"/>
+        <c:axId val="41298787"/>
+        <c:axId val="1571793"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32987206"/>
+        <c:axId val="41298787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53282761"/>
+        <c:crossAx val="1571793"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1192,7 +1188,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53282761"/>
+        <c:axId val="1571793"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32987206"/>
+        <c:crossAx val="41298787"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1264,7 +1260,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1638,11 +1634,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95357507"/>
-        <c:axId val="40287354"/>
+        <c:axId val="15109233"/>
+        <c:axId val="23765841"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95357507"/>
+        <c:axId val="15109233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42004"/>
@@ -1670,7 +1666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40287354"/>
+        <c:crossAx val="23765841"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1681,7 +1677,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40287354"/>
+        <c:axId val="23765841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95357507"/>
+        <c:crossAx val="15109233"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1753,15 +1749,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>262800</xdr:colOff>
+      <xdr:colOff>289800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>159480</xdr:colOff>
+      <xdr:colOff>186120</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1769,8 +1765,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5453640" y="2469240"/>
-        <a:ext cx="6507000" cy="3873600"/>
+        <a:off x="5480640" y="2460240"/>
+        <a:ext cx="6506640" cy="3873240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1788,15 +1784,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>184320</xdr:colOff>
+      <xdr:colOff>211320</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>654840</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1804,8 +1800,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5472360" y="937800"/>
-        <a:ext cx="5758920" cy="3239280"/>
+        <a:off x="5499360" y="928800"/>
+        <a:ext cx="5758560" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1826,7 +1822,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D34" activeCellId="0" pane="topLeft" sqref="D34"/>
+      <selection activeCell="J10" activeCellId="0" pane="topLeft" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -2385,7 +2381,7 @@
         <f aca="false">(C2-C23)/(A2-A23)</f>
         <v>-2.17142857142857</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="0" t="n">
         <f aca="false">(D2-D13)/(A2-A13)</f>
         <v>-1.28181818181818</v>
       </c>
